--- a/docs/requirements/Master Data Tables - Test Data/master-screen_detail.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-screen_detail.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4E47F71C-85A0-4264-B626-BB706443FE7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -91,12 +92,24 @@
   </si>
   <si>
     <t>syncClientServerRoot</t>
+  </si>
+  <si>
+    <t>eodRoot</t>
+  </si>
+  <si>
+    <t>eodroot</t>
+  </si>
+  <si>
+    <t>reRegisterRoot</t>
+  </si>
+  <si>
+    <t>uploadPacketRoot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A18" sqref="A18:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,6 +800,84 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>10003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>10003</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>10003</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
